--- a/Data/Data cleansing/Keywords.xlsx
+++ b/Data/Data cleansing/Keywords.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobywigglesworth/Documents/GitHub/Sentiment-Analysis/Data/Cleansing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobywigglesworth/Documents/GitHub/Sentiment-Analysis/Data/Data cleansing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58337FC-08E3-714F-B6E9-98C3D6749991}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087AD91C-7D5B-DD40-B024-B452B8ED7121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="1220" windowWidth="23220" windowHeight="15640" xr2:uid="{75A71701-1207-3B41-97D9-B0FD65A41E2A}"/>
+    <workbookView xWindow="5580" yWindow="1220" windowWidth="23220" windowHeight="15640" xr2:uid="{75A71701-1207-3B41-97D9-B0FD65A41E2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>tea</t>
   </si>
@@ -153,6 +153,15 @@
   </si>
   <si>
     <t>location</t>
+  </si>
+  <si>
+    <t>parking</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>bathroom</t>
   </si>
 </sst>
 </file>
@@ -504,15 +513,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F82BB99-B6B4-7A4F-86B3-3ACAF705728B}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -523,7 +532,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -534,7 +543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -545,7 +554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -556,7 +565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -567,7 +576,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -578,7 +587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -589,7 +598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -600,7 +609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -611,7 +620,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -621,35 +630,41 @@
       <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="E10">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -657,12 +672,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>37</v>
       </c>
